--- a/src/keyword/result/keywords.xlsx
+++ b/src/keyword/result/keywords.xlsx
@@ -232,9 +232,6 @@
     <t>商業</t>
   </si>
   <si>
-    <t>コマ</t>
-  </si>
-  <si>
     <t>手紙</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>書翰</t>
   </si>
   <si>
-    <t>枚数</t>
-  </si>
-  <si>
     <t>製品</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
     <t>山田</t>
   </si>
   <si>
-    <t>奘譯</t>
-  </si>
-  <si>
     <t>会社</t>
   </si>
   <si>
@@ -580,12 +571,6 @@
     <t>専門</t>
   </si>
   <si>
-    <t>福重</t>
-  </si>
-  <si>
-    <t>書誌</t>
-  </si>
-  <si>
     <t>年貢</t>
   </si>
   <si>
@@ -670,9 +655,6 @@
     <t>海軍</t>
   </si>
   <si>
-    <t>典籍</t>
-  </si>
-  <si>
     <t>手書き</t>
   </si>
   <si>
@@ -685,9 +667,6 @@
     <t>サービス</t>
   </si>
   <si>
-    <t>満了</t>
-  </si>
-  <si>
     <t>原稿</t>
   </si>
   <si>
@@ -721,9 +700,6 @@
     <t>科学</t>
   </si>
   <si>
-    <t>平版</t>
-  </si>
-  <si>
     <t>加藤</t>
   </si>
   <si>
@@ -917,6 +893,30 @@
   </si>
   <si>
     <t>大和</t>
+  </si>
+  <si>
+    <t>整理</t>
+  </si>
+  <si>
+    <t>工場</t>
+  </si>
+  <si>
+    <t>留学</t>
+  </si>
+  <si>
+    <t>執筆</t>
+  </si>
+  <si>
+    <t>スクラップ</t>
+  </si>
+  <si>
+    <t>刊本</t>
+  </si>
+  <si>
+    <t>石版</t>
+  </si>
+  <si>
+    <t>紀要</t>
   </si>
   <si>
     <t>cnt</t>
@@ -1838,7 +1838,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>16668.93194854822</v>
+        <v>16442.88872392781</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1846,7 +1846,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>16442.88872392781</v>
+        <v>16275.94163873096</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>16275.94163873096</v>
+        <v>16234.64943382366</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1862,7 +1862,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>16234.64943382366</v>
+        <v>16054.73063226884</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1870,7 +1870,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>16054.73063226884</v>
+        <v>16014.26400106725</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1878,7 +1878,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>16014.26400106725</v>
+        <v>15900.08564838094</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1886,7 +1886,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>15900.08564838094</v>
+        <v>15597.9225544453</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1894,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>15597.9225544453</v>
+        <v>15258.89832204629</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1902,7 +1902,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>15258.89832204629</v>
+        <v>15193.57506569223</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1910,7 +1910,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>15193.57506569223</v>
+        <v>15175.00184758538</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1918,7 +1918,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>15175.00184758538</v>
+        <v>15160.97481940454</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1926,7 +1926,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>15160.97481940454</v>
+        <v>15135.32305437439</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1934,7 +1934,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>15135.32305437439</v>
+        <v>15053.71931080702</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1942,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>15053.71931080702</v>
+        <v>14897.542760617</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1950,7 +1950,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>14897.542760617</v>
+        <v>14825.87038958212</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1958,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>14825.87038958212</v>
+        <v>14677.8879113757</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1966,7 +1966,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>14677.8879113757</v>
+        <v>14523.08094980007</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1974,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>14543.77662729975</v>
+        <v>14182.70293245014</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1982,7 +1982,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>14523.08094980007</v>
+        <v>14057.18311485146</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1990,7 +1990,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>14182.70293245014</v>
+        <v>14055.03270555441</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1998,7 +1998,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>14057.18311485146</v>
+        <v>13703.65470321074</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2006,7 +2006,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>14055.03270555441</v>
+        <v>13417.84570142442</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2014,7 +2014,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>13703.65470321074</v>
+        <v>13350.44945129014</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2022,7 +2022,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>13417.84570142442</v>
+        <v>13222.78028149642</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2030,7 +2030,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>13350.44945129014</v>
+        <v>13072.06312404378</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2038,7 +2038,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>13222.78028149642</v>
+        <v>12906.81161342004</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2046,7 +2046,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>13072.06312404378</v>
+        <v>12719.05184099683</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2054,7 +2054,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>12906.81161342004</v>
+        <v>12574.92142414584</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2062,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>12719.05184099683</v>
+        <v>12562.27857121107</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2070,7 +2070,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>12574.92142414584</v>
+        <v>12424.84560775746</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2078,7 +2078,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>12562.27857121107</v>
+        <v>12420.68912931702</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2086,7 +2086,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>12424.84560775746</v>
+        <v>12218.92798206165</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2094,7 +2094,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>12420.68912931702</v>
+        <v>12027.9453327552</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2102,7 +2102,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>12218.92798206165</v>
+        <v>11749.60819412157</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2110,7 +2110,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>12027.9453327552</v>
+        <v>11747.95469778232</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2118,7 +2118,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>11749.60819412157</v>
+        <v>11712.68176976644</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2126,7 +2126,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>11747.95469778232</v>
+        <v>11612.98345044727</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2134,7 +2134,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>11712.68176976644</v>
+        <v>11522.2273812968</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2142,7 +2142,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>11612.98345044727</v>
+        <v>11463.27401466374</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2150,7 +2150,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>11522.2273812968</v>
+        <v>11227.65239402007</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2158,7 +2158,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>11463.27401466374</v>
+        <v>11092.54998465074</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2166,7 +2166,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>11227.65239402007</v>
+        <v>10984.08124944079</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2174,7 +2174,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>11092.54998465074</v>
+        <v>10830.29665928252</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2182,7 +2182,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>10984.08124944079</v>
+        <v>10650.80636891815</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2190,7 +2190,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>10830.29665928252</v>
+        <v>10570.67778506447</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2198,7 +2198,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>10650.80636891815</v>
+        <v>10525.00381126583</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2206,7 +2206,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>10570.67778506447</v>
+        <v>10425.91557943158</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2214,7 +2214,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>10525.00381126583</v>
+        <v>10248.29692498428</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2222,7 +2222,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>10425.91557943158</v>
+        <v>10247.81929523014</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2230,7 +2230,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>10248.29692498428</v>
+        <v>10225.15372154102</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2238,7 +2238,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>10247.81929523014</v>
+        <v>10187.87052414807</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2246,7 +2246,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>10225.15372154102</v>
+        <v>10163.95305974978</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2254,7 +2254,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>10187.87052414807</v>
+        <v>10152.40741371137</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2262,7 +2262,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>10163.95305974978</v>
+        <v>10108.68489456855</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2270,7 +2270,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>10152.40741371137</v>
+        <v>10086.51126999268</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2278,7 +2278,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>10108.68489456855</v>
+        <v>9803.312261079487</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2286,7 +2286,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>10086.51126999268</v>
+        <v>9788.32501257781</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2294,7 +2294,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>9803.312261079487</v>
+        <v>9744.697362887957</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2302,7 +2302,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>9788.32501257781</v>
+        <v>9679.129140360315</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2310,7 +2310,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>9744.697362887957</v>
+        <v>9665.265291309861</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2318,7 +2318,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>9679.129140360315</v>
+        <v>9611.639805713852</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2326,7 +2326,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>9665.265291309861</v>
+        <v>9589.96097061653</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>9611.639805713852</v>
+        <v>9487.026205964448</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2342,7 +2342,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>9589.96097061653</v>
+        <v>9420.954353914551</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2350,7 +2350,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>9487.026205964448</v>
+        <v>9391.201027891086</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2358,7 +2358,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>9420.954353914551</v>
+        <v>9385.230533712944</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2366,7 +2366,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>9391.201027891086</v>
+        <v>9369.152370522954</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2374,7 +2374,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>9385.230533712944</v>
+        <v>9357.172122610025</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2382,7 +2382,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>9369.152370522954</v>
+        <v>9288.844208946635</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2390,7 +2390,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>9357.172122610025</v>
+        <v>9260.167323291264</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2398,7 +2398,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>9288.844208946635</v>
+        <v>9112.027093428991</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2406,7 +2406,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>9260.167323291264</v>
+        <v>9052.710622150755</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2414,7 +2414,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>9112.027093428991</v>
+        <v>9038.941960342656</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2422,7 +2422,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>9052.710622150755</v>
+        <v>8919.375338368774</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2430,7 +2430,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>9038.941960342656</v>
+        <v>8869.823518799982</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2438,7 +2438,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>8919.375338368774</v>
+        <v>8837.33469636924</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2446,7 +2446,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>8869.823518799982</v>
+        <v>8799.393995836461</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2454,7 +2454,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>8837.33469636924</v>
+        <v>8764.485938287526</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2462,7 +2462,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>8799.393995836461</v>
+        <v>8737.122892996365</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2470,7 +2470,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>8764.485938287526</v>
+        <v>8623.553387032987</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2478,7 +2478,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>8737.122892996365</v>
+        <v>8615.750280201713</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2486,7 +2486,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>8623.553387032987</v>
+        <v>8603.30725072283</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2494,7 +2494,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>8615.750280201713</v>
+        <v>8393.257776725814</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2502,7 +2502,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>8603.30725072283</v>
+        <v>8278.163402716817</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2510,7 +2510,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>8393.257776725814</v>
+        <v>8253.652279681704</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2518,7 +2518,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>8278.163402716817</v>
+        <v>8241.97538855554</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2526,7 +2526,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>8253.652279681704</v>
+        <v>8165.890564928269</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2534,7 +2534,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>8241.97538855554</v>
+        <v>8153.663451302391</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2542,7 +2542,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>8165.890564928269</v>
+        <v>8068.882312613681</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2550,7 +2550,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>8153.663451302391</v>
+        <v>8064.835674746982</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2558,7 +2558,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>8068.882312613681</v>
+        <v>7837.596972391309</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2566,7 +2566,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>8064.835674746982</v>
+        <v>7806.863899448207</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2574,7 +2574,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7899.971125607391</v>
+        <v>7803.261426876753</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2582,7 +2582,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7837.596972391309</v>
+        <v>7800.493676447758</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2590,7 +2590,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>7806.863899448207</v>
+        <v>7769.322181416135</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7803.261426876753</v>
+        <v>7709.20799603134</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2606,7 +2606,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7800.493676447758</v>
+        <v>7684.360107874119</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2614,7 +2614,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7769.322181416135</v>
+        <v>7629.838353153828</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2622,7 +2622,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>7709.20799603134</v>
+        <v>7605.920792930782</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2630,7 +2630,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7684.360107874119</v>
+        <v>7513.928510928187</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2638,7 +2638,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7629.838353153828</v>
+        <v>7511.721051005929</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2646,7 +2646,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7605.920792930782</v>
+        <v>7462.395544716998</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2654,7 +2654,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7513.928510928187</v>
+        <v>7427.49817529704</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2662,7 +2662,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7511.721051005929</v>
+        <v>7386.423528747619</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2670,7 +2670,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7462.395544716998</v>
+        <v>7257.704803335382</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2678,7 +2678,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>7427.49817529704</v>
+        <v>7242.181978612071</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2686,7 +2686,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7386.423528747619</v>
+        <v>7169.11089266477</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2694,7 +2694,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7257.704803335382</v>
+        <v>7125.480741830822</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2702,7 +2702,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>7242.181978612071</v>
+        <v>6999.796216627444</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2710,7 +2710,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>7169.11089266477</v>
+        <v>6985.868914859196</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2718,7 +2718,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7125.480741830822</v>
+        <v>6981.605618032427</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2726,7 +2726,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>6999.796216627444</v>
+        <v>6981.392588075514</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2734,7 +2734,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>6985.868914859196</v>
+        <v>6960.717212972285</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2742,7 +2742,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>6981.605618032427</v>
+        <v>6694.638490521129</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2750,7 +2750,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>6981.392588075514</v>
+        <v>6610.773085439532</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2758,7 +2758,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6960.717212972285</v>
+        <v>6550.803442786168</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2766,7 +2766,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>6918.980190521809</v>
+        <v>6516.08716906345</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2774,7 +2774,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>6855.528633453916</v>
+        <v>6509.452696121917</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2782,7 +2782,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>6694.638490521129</v>
+        <v>6501.058335995601</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2790,7 +2790,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>6610.773085439532</v>
+        <v>6467.336806656106</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2798,7 +2798,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>6550.803442786168</v>
+        <v>6466.686362983462</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2806,7 +2806,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>6516.08716906345</v>
+        <v>6463.919173333425</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2814,7 +2814,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>6509.452696121917</v>
+        <v>6400.842805382513</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2822,7 +2822,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>6501.058335995601</v>
+        <v>6271.798818026389</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2830,7 +2830,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>6467.336806656106</v>
+        <v>6175.04477133788</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2838,7 +2838,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>6466.686362983462</v>
+        <v>6151.99867904073</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2846,7 +2846,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>6463.919173333425</v>
+        <v>6142.133337483306</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2854,7 +2854,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>6400.842805382513</v>
+        <v>6127.992113944529</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2862,7 +2862,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>6271.798818026389</v>
+        <v>6126.946459394227</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2870,7 +2870,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>6175.04477133788</v>
+        <v>6107.171921031806</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2878,7 +2878,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>6151.99867904073</v>
+        <v>6100.495774740711</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2886,7 +2886,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>6142.133337483306</v>
+        <v>6090.448000859295</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2894,7 +2894,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>6127.992113944529</v>
+        <v>6087.257881623839</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2902,7 +2902,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>6126.946459394227</v>
+        <v>6060.409929042691</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2910,7 +2910,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>6107.171921031806</v>
+        <v>6045.553277679452</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2918,7 +2918,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>6100.495774740711</v>
+        <v>6026.075330897173</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2926,7 +2926,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>6090.448000859295</v>
+        <v>6010.129875606128</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2934,7 +2934,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>6087.257881623839</v>
+        <v>5972.930618035974</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2942,7 +2942,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>6060.409929042691</v>
+        <v>5918.339848280792</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2950,7 +2950,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>6045.553277679452</v>
+        <v>5858.364932977012</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2958,7 +2958,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>6026.075330897173</v>
+        <v>5821.073036236373</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2966,7 +2966,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>6010.129875606128</v>
+        <v>5817.415133547403</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2974,7 +2974,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5972.930618035974</v>
+        <v>5782.90232673153</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2982,7 +2982,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>5918.339848280792</v>
+        <v>5778.064442455341</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2990,7 +2990,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>5858.364932977012</v>
+        <v>5732.845411491628</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2998,7 +2998,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>5821.073036236373</v>
+        <v>5675.945606240783</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3006,7 +3006,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>5818.036484742316</v>
+        <v>5661.253212072814</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3014,7 +3014,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>5817.415133547403</v>
+        <v>5656.463784352446</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3022,7 +3022,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>5782.90232673153</v>
+        <v>5594.437040029596</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3030,7 +3030,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>5778.064442455341</v>
+        <v>5584.504381432946</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3038,7 +3038,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>5732.845411491628</v>
+        <v>5557.384288491784</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3046,7 +3046,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>5691.749719502218</v>
+        <v>5553.940194578269</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3054,7 +3054,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>5675.945606240783</v>
+        <v>5552.938872249234</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3062,7 +3062,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>5661.253212072814</v>
+        <v>5536.756236931905</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3070,7 +3070,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>5656.463784352446</v>
+        <v>5536.021216236902</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3078,7 +3078,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>5594.437040029596</v>
+        <v>5523.076754679932</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3086,7 +3086,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>5584.504381432946</v>
+        <v>5481.442963167798</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3094,7 +3094,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>5557.384288491784</v>
+        <v>5421.986140497724</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3102,7 +3102,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>5553.940194578269</v>
+        <v>5411.32648020573</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3110,7 +3110,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>5552.938872249234</v>
+        <v>5396.792643080499</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3118,7 +3118,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>5536.756236931905</v>
+        <v>5358.477140566949</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3126,7 +3126,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>5536.021216236902</v>
+        <v>5349.001077967946</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3134,7 +3134,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>5523.076754679932</v>
+        <v>5319.100633829823</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3142,7 +3142,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>5519.437576413102</v>
+        <v>5201.336689409777</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3150,7 +3150,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>5481.442963167798</v>
+        <v>5199.988456005281</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3158,7 +3158,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>5421.986140497724</v>
+        <v>5168.280196314921</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3166,7 +3166,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>5411.32648020573</v>
+        <v>5105.056800960481</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3174,7 +3174,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>5396.792643080499</v>
+        <v>5037.878203848852</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>5358.477140566949</v>
+        <v>5037.14110319984</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3190,7 +3190,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>5349.001077967946</v>
+        <v>5034.012958513713</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>5319.100633829823</v>
+        <v>5006.284396000322</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>5201.336689409777</v>
+        <v>5001.892558814289</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3214,7 +3214,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>5199.988456005281</v>
+        <v>4996.559654393644</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3222,7 +3222,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>5168.280196314921</v>
+        <v>4991.523777761377</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3230,7 +3230,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>5105.056800960481</v>
+        <v>4948.755140902174</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3238,7 +3238,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>5037.878203848852</v>
+        <v>4922.816909491041</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3246,7 +3246,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>5037.14110319984</v>
+        <v>4898.311353914435</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3254,7 +3254,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>5034.012958513713</v>
+        <v>4896.685472526143</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3262,7 +3262,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>5006.284396000322</v>
+        <v>4892.77813054238</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3270,7 +3270,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>5001.892558814289</v>
+        <v>4888.084730149297</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3278,7 +3278,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>4996.559654393644</v>
+        <v>4873.234238347381</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3286,7 +3286,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>4991.523777761377</v>
+        <v>4871.230829825249</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3294,7 +3294,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>4948.755140902174</v>
+        <v>4841.391665953235</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3302,7 +3302,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>4922.816909491041</v>
+        <v>4827.86796963499</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3310,7 +3310,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>4898.311353914435</v>
+        <v>4818.451090000982</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3318,7 +3318,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>4896.685472526143</v>
+        <v>4778.397751127214</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3326,7 +3326,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>4892.77813054238</v>
+        <v>4763.871565405424</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3334,7 +3334,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>4888.084730149297</v>
+        <v>4749.583486203483</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3342,7 +3342,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>4873.234238347381</v>
+        <v>4748.202812387804</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3350,7 +3350,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>4871.230829825249</v>
+        <v>4718.724871628731</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3358,7 +3358,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>4841.391665953235</v>
+        <v>4690.193177689794</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3366,7 +3366,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>4827.86796963499</v>
+        <v>4686.250923687951</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3374,7 +3374,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>4818.451090000982</v>
+        <v>4684.821151173081</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3382,7 +3382,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>4778.397751127214</v>
+        <v>4665.547776289386</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3390,7 +3390,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>4763.871565405424</v>
+        <v>4649.459493174969</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3398,7 +3398,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>4749.583486203483</v>
+        <v>4611.30618872927</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3406,7 +3406,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>4748.202812387804</v>
+        <v>4588.772207788135</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3414,7 +3414,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>4718.724871628731</v>
+        <v>4571.461709765644</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3422,7 +3422,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>4690.193177689794</v>
+        <v>4562.045674652882</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3430,7 +3430,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>4686.250923687951</v>
+        <v>4554.687668222678</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3438,7 +3438,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>4684.821151173081</v>
+        <v>4551.751639308708</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3446,7 +3446,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>4665.547776289386</v>
+        <v>4538.93338062477</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3454,7 +3454,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>4649.459493174969</v>
+        <v>4493.462322750071</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>4611.30618872927</v>
+        <v>4475.462620628011</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>4588.772207788135</v>
+        <v>4475.22679418506</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3478,7 +3478,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>4571.461709765644</v>
+        <v>4471.522090018066</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>4562.045674652882</v>
+        <v>4469.531360978918</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>4554.687668222678</v>
+        <v>4469.013327031226</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>4551.751639308708</v>
+        <v>4466.55294021677</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>4538.93338062477</v>
+        <v>4457.80837572373</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3518,7 +3518,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>4493.462322750071</v>
+        <v>4435.779056279449</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3526,7 +3526,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>4475.462620628011</v>
+        <v>4422.708445660328</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3534,7 +3534,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>4475.22679418506</v>
+        <v>4376.329632008627</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3542,7 +3542,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>4471.522090018066</v>
+        <v>4357.474676141063</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3550,7 +3550,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>4469.531360978918</v>
+        <v>4351.171937622502</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3558,7 +3558,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>4469.013327031226</v>
+        <v>4350.587780753808</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3566,7 +3566,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>4466.55294021677</v>
+        <v>4343.561362042905</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3574,7 +3574,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>4457.80837572373</v>
+        <v>4285.956642081622</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3582,7 +3582,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>4435.779056279449</v>
+        <v>4279.268927837757</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3590,7 +3590,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>4422.708445660328</v>
+        <v>4277.569172138118</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3598,7 +3598,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>4376.329632008627</v>
+        <v>4276.90150949778</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3606,7 +3606,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>4357.474676141063</v>
+        <v>4217.308188394047</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3614,7 +3614,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>4351.171937622502</v>
+        <v>4210.631612984654</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3622,7 +3622,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>4350.587780753808</v>
+        <v>4208.119359822374</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3630,7 +3630,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>4343.561362042905</v>
+        <v>4189.708746014542</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3638,7 +3638,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>4285.956642081622</v>
+        <v>4176.122012499988</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3646,7 +3646,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>4279.268927837757</v>
+        <v>4164.914957886241</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3654,7 +3654,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>4277.569172138118</v>
+        <v>4158.455400067312</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3662,7 +3662,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>4276.90150949778</v>
+        <v>4130.079655103533</v>
       </c>
     </row>
   </sheetData>
